--- a/Fuzzy logic/Rules.xlsx
+++ b/Fuzzy logic/Rules.xlsx
@@ -24,47 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
   <si>
     <t>HPa</t>
   </si>
   <si>
-    <t>HPe</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>Dst</t>
-  </si>
-  <si>
-    <t>inCov</t>
-  </si>
-  <si>
-    <t>behCov</t>
-  </si>
-  <si>
-    <t>behWall</t>
-  </si>
-  <si>
-    <t>packs</t>
-  </si>
-  <si>
-    <t>sight</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Мало</t>
   </si>
   <si>
-    <t>weight for dst</t>
-  </si>
-  <si>
     <t>Много</t>
   </si>
   <si>
@@ -95,13 +65,40 @@
     <t>Высокий</t>
   </si>
   <si>
-    <t>Среднее</t>
-  </si>
-  <si>
     <t>Малое</t>
   </si>
   <si>
     <t>Высокое</t>
+  </si>
+  <si>
+    <t>HPп</t>
+  </si>
+  <si>
+    <t>Видимость</t>
+  </si>
+  <si>
+    <t>Дистанция</t>
+  </si>
+  <si>
+    <t>Вес дистанции</t>
+  </si>
+  <si>
+    <t>Вес в укрытии</t>
+  </si>
+  <si>
+    <t>Вес за укрытием</t>
+  </si>
+  <si>
+    <t>Вес за стеной</t>
+  </si>
+  <si>
+    <t>Вес аптечек</t>
+  </si>
+  <si>
+    <t>Вес прямой видимости</t>
+  </si>
+  <si>
+    <t>Радиус поиска</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,454 +430,454 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
